--- a/biology/Biologie cellulaire et moléculaire/Hypothèse_un_gène_-_une_enzyme/Hypothèse_un_gène_-_une_enzyme.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hypothèse_un_gène_-_une_enzyme/Hypothèse_un_gène_-_une_enzyme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypoth%C3%A8se_un_g%C3%A8ne_-_une_enzyme</t>
+          <t>Hypothèse_un_gène_-_une_enzyme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypothèse un gène - une enzyme, est l'idée que les  gènes agissent par la production d'enzymes, chaque gène étant responsable de la production d'une enzyme unique qui à son tour affecte une seule étape dans une voie métabolique. Le concept a été proposé par George Beadle et Edward Tatum dans un article fondateur en 1941 sur les mutations génétiques chez le champignon Neurospora crassa[1], et par la suite a été surnommé l' « hypothèse un gène - une enzyme » par leur collaborateur Norman Horowitz[2]. Il s'agit certainement du premier résultat significatif dans ce qui allait être appelé la biologie moléculaire[3]. Bien que très influente, l'hypothèse a été reconnue peu de temps après sa proposition comme d'une simplification excessive. Même la reformulation ultérieure « un gène - un polypeptide » est maintenant considérée comme trop simple pour décrire la relation entre les gènes et les protéines[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypothèse un gène - une enzyme, est l'idée que les  gènes agissent par la production d'enzymes, chaque gène étant responsable de la production d'une enzyme unique qui à son tour affecte une seule étape dans une voie métabolique. Le concept a été proposé par George Beadle et Edward Tatum dans un article fondateur en 1941 sur les mutations génétiques chez le champignon Neurospora crassa, et par la suite a été surnommé l' « hypothèse un gène - une enzyme » par leur collaborateur Norman Horowitz. Il s'agit certainement du premier résultat significatif dans ce qui allait être appelé la biologie moléculaire. Bien que très influente, l'hypothèse a été reconnue peu de temps après sa proposition comme d'une simplification excessive. Même la reformulation ultérieure « un gène - un polypeptide » est maintenant considérée comme trop simple pour décrire la relation entre les gènes et les protéines.
 </t>
         </is>
       </c>
